--- a/jayud-scm/jayud-scm-web/src/main/resources/template/booking_order_entry.xlsx
+++ b/jayud-scm/jayud-scm-web/src/main/resources/template/booking_order_entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17355" windowHeight="4575"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>型号</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>境内货源地</t>
+  </si>
+  <si>
+    <t>提货联系人</t>
+  </si>
+  <si>
+    <t>提货联系电话</t>
+  </si>
+  <si>
+    <t>提货地址</t>
+  </si>
+  <si>
+    <t>交货联系人</t>
+  </si>
+  <si>
+    <t>交货联系电话</t>
+  </si>
+  <si>
+    <t>交货地址</t>
+  </si>
+  <si>
+    <t>交仓单号</t>
   </si>
 </sst>
 </file>
@@ -102,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -116,19 +137,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,68 +188,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +211,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -229,32 +250,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +290,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,103 +398,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,80 +480,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -485,31 +506,30 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +545,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,31 +599,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,140 +631,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1052,31 +1094,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="5.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.875" style="1" customWidth="1"/>
-    <col min="10" max="16" width="5.125" style="1" customWidth="1"/>
-    <col min="17" max="20" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="6.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.875" style="1" customWidth="1"/>
     <col min="22" max="22" width="8.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.75" style="1" customWidth="1"/>
-    <col min="24" max="25" width="5.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="1" customWidth="1"/>
     <col min="27" max="27" width="10.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.25" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14" style="1" customWidth="1"/>
+    <col min="35" max="35" width="24.375" customWidth="1"/>
+    <col min="36" max="36" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1218,29 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
